--- a/Data/data_curation/Gestion_projet_archives.xlsx
+++ b/Data/data_curation/Gestion_projet_archives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rroll\Documents\GitHub\Memoire_Master\Memoire\Data\data_curation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B6CBF13-5AB4-4CC2-8F5C-DC3368CA141E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAADC26-AFC3-4BA5-BB36-86F6E692245B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{27FD8340-C1E8-473D-84D0-DD070724D8E9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Dans votre service d’archives, la gestion des projets numériques est de la responsabilité de quel profil professionnel ?</t>
   </si>
@@ -45,6 +45,30 @@
   </si>
   <si>
     <t>Une co-gestion (archiviste/informaticien)</t>
+  </si>
+  <si>
+    <t>Institutions</t>
+  </si>
+  <si>
+    <t>ACV</t>
+  </si>
+  <si>
+    <t>AEN</t>
+  </si>
+  <si>
+    <t>Arcj</t>
+  </si>
+  <si>
+    <t>AEF</t>
+  </si>
+  <si>
+    <t>AEG</t>
+  </si>
+  <si>
+    <t>AEV</t>
+  </si>
+  <si>
+    <t>Un informaticien</t>
   </si>
 </sst>
 </file>
@@ -425,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BFFB142-363A-4EFD-9686-9A90D4824FEA}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,34 +460,60 @@
     <col min="1" max="1" width="95.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
